--- a/Docs/XmlTreeBuilderRoute.xlsx
+++ b/Docs/XmlTreeBuilderRoute.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimSangHeon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stfan\Downloads\seniorwelfare\origin\DPTP2019_Team2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098BC9A7-3AA0-4E5D-B4A9-85AEFAE41F7B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598F24B4-8BF0-4FFB-BC9C-A67111B7CE5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E2360C8-40F4-4B9A-A566-4EC38B36DE2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0E2360C8-40F4-4B9A-A566-4EC38B36DE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token.type에 다르게 행동하며 데이터를 넣거나 &lt;,&gt;를 인식하는 행위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>insert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,7 +156,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이부분부터 복잡해지기 시작</t>
+    <t>token.type에 다르게 행동하며 데이터를 넣거나 &lt;,&gt;를 인식하는 행위. 맞는데, 이는 html문법에 벗어난 것을 처리하는것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html문법이 아닌 태그를 토큰화시켜서 토큰 큐로 집어넣음, 닫을때도 큐를 뒤져서 찾음. 즉, 이번 태그가 self closing인지 아닌지에 따라 다르다는 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.comment commenttoken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment 관련 토큰을 인식했을때 들어가는부분, comment의따라 xmldeclaration으로 들어가서 명시.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.character token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터에 따라서 정보를 얻고 노드를 새롭게 넣을게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popstacktoclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Token.endtag endtag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토큰화된 태그의 스택을 뒤져서 그 태그를 닫는행위. 엔드태그를 만났을때 행하는것으로 보임.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14188A70-CFCD-44A2-9FED-9E2B77AAF0DB}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -671,7 +703,7 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -682,21 +714,57 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>